--- a/MovQual/Output/MoveQual_unaff.xlsx
+++ b/MovQual/Output/MoveQual_unaff.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="190">
   <si>
     <t>ppID</t>
   </si>
@@ -573,6 +573,18 @@
   </si>
   <si>
     <t>var_movement_time</t>
+  </si>
+  <si>
+    <t>BC_058</t>
+  </si>
+  <si>
+    <t>BC_059</t>
+  </si>
+  <si>
+    <t>F_R_001</t>
+  </si>
+  <si>
+    <t>T1</t>
   </si>
 </sst>
 </file>
@@ -593,7 +605,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -603,14 +615,16 @@
     </border>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4429,20 +4443,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y41"/>
+  <dimension ref="A1:Y43"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.37890625" customWidth="true"/>
     <col min="2" max="2" width="8.15625" customWidth="true"/>
-    <col min="3" max="3" width="4.82421875" customWidth="true"/>
+    <col min="3" max="3" width="3.15625" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
     <col min="5" max="5" width="12.7109375" customWidth="true"/>
-    <col min="6" max="6" width="11.7109375" customWidth="true"/>
+    <col min="6" max="6" width="10.7109375" customWidth="true"/>
     <col min="7" max="7" width="12.7109375" customWidth="true"/>
-    <col min="8" max="8" width="12.7109375" customWidth="true"/>
-    <col min="9" max="9" width="12.7109375" customWidth="true"/>
-    <col min="10" max="10" width="12.7109375" customWidth="true"/>
-    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="11.7109375" customWidth="true"/>
+    <col min="9" max="9" width="11.7109375" customWidth="true"/>
+    <col min="10" max="10" width="11.7109375" customWidth="true"/>
+    <col min="11" max="11" width="11.7109375" customWidth="true"/>
     <col min="12" max="12" width="12.7109375" customWidth="true"/>
     <col min="13" max="13" width="12.7109375" customWidth="true"/>
     <col min="14" max="14" width="12.7109375" customWidth="true"/>
@@ -4454,9 +4468,9 @@
     <col min="20" max="20" width="12.7109375" customWidth="true"/>
     <col min="21" max="21" width="12.7109375" customWidth="true"/>
     <col min="22" max="22" width="12.7109375" customWidth="true"/>
-    <col min="23" max="23" width="12.37890625" customWidth="true"/>
-    <col min="24" max="24" width="18.37890625" customWidth="true"/>
-    <col min="25" max="25" width="18.15625" customWidth="true"/>
+    <col min="23" max="23" width="11.37890625" customWidth="true"/>
+    <col min="24" max="24" width="11.7109375" customWidth="true"/>
+    <col min="25" max="25" width="13.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7616,6 +7630,160 @@
         <v>0.041565812005983083</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="D42" s="0">
+        <v>1.7002383758749313</v>
+      </c>
+      <c r="E42" s="0">
+        <v>0.53746894169195758</v>
+      </c>
+      <c r="F42" s="0">
+        <v>2.0945479602134687</v>
+      </c>
+      <c r="G42" s="0">
+        <v>0.83265928584113325</v>
+      </c>
+      <c r="H42" s="0">
+        <v>1.7826315626001614</v>
+      </c>
+      <c r="I42" s="0">
+        <v>1.8377741325768187</v>
+      </c>
+      <c r="J42" s="0">
+        <v>1.0386753243318647</v>
+      </c>
+      <c r="K42" s="0">
+        <v>1.600537333428913</v>
+      </c>
+      <c r="L42" s="0">
+        <v>0.88561060844048944</v>
+      </c>
+      <c r="M42" s="0">
+        <v>0.47911844125968028</v>
+      </c>
+      <c r="N42" s="0">
+        <v>0.91204588064469561</v>
+      </c>
+      <c r="O42" s="0">
+        <v>0.73021985406984236</v>
+      </c>
+      <c r="P42" s="0">
+        <v>5.7082069114283529</v>
+      </c>
+      <c r="Q42" s="0">
+        <v>1.8725330393775597</v>
+      </c>
+      <c r="R42" s="0">
+        <v>7.2536203237825703</v>
+      </c>
+      <c r="S42" s="0">
+        <v>9.5958271116954279</v>
+      </c>
+      <c r="T42" s="0">
+        <v>0.60607395710218559</v>
+      </c>
+      <c r="U42" s="0">
+        <v>0.19881786462715278</v>
+      </c>
+      <c r="V42" s="0">
+        <v>0.77015960373652237</v>
+      </c>
+      <c r="W42" s="0">
+        <v>-6.1161199096884671</v>
+      </c>
+      <c r="X42" s="0">
+        <v>1.1820512820512818</v>
+      </c>
+      <c r="Y42" s="0">
+        <v>0.034333291842975532</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="D43" s="0">
+        <v>1.6208048052317705</v>
+      </c>
+      <c r="E43" s="0">
+        <v>0.56084218205245395</v>
+      </c>
+      <c r="F43" s="0">
+        <v>1.7532124074250486</v>
+      </c>
+      <c r="G43" s="0">
+        <v>0.95046459277499629</v>
+      </c>
+      <c r="H43" s="0">
+        <v>0.64242428384496753</v>
+      </c>
+      <c r="I43" s="0">
+        <v>1.2405987975195436</v>
+      </c>
+      <c r="J43" s="0">
+        <v>0.474783330559163</v>
+      </c>
+      <c r="K43" s="0">
+        <v>0.7818204042753486</v>
+      </c>
+      <c r="L43" s="0">
+        <v>0.88475384486669917</v>
+      </c>
+      <c r="M43" s="0">
+        <v>0.4978666174537183</v>
+      </c>
+      <c r="N43" s="0">
+        <v>0.90325384405291209</v>
+      </c>
+      <c r="O43" s="0">
+        <v>0.70132945289240622</v>
+      </c>
+      <c r="P43" s="0">
+        <v>5.6769602059163615</v>
+      </c>
+      <c r="Q43" s="0">
+        <v>1.9345967017576839</v>
+      </c>
+      <c r="R43" s="0">
+        <v>7.1448641255772776</v>
+      </c>
+      <c r="S43" s="0">
+        <v>9.4960633615118155</v>
+      </c>
+      <c r="T43" s="0">
+        <v>0.60856538521468095</v>
+      </c>
+      <c r="U43" s="0">
+        <v>0.20738714811022257</v>
+      </c>
+      <c r="V43" s="0">
+        <v>0.76592345747941137</v>
+      </c>
+      <c r="W43" s="0">
+        <v>-6.1498567433178479</v>
+      </c>
+      <c r="X43" s="0">
+        <v>1.1935897435897436</v>
+      </c>
+      <c r="Y43" s="0">
+        <v>0.038211437556233879</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>